--- a/biology/Zoologie/Elseya/Elseya.xlsx
+++ b/biology/Zoologie/Elseya/Elseya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elseya est un genre de tortue de la famille des Chelidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elseya est un genre de tortue de la famille des Chelidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 16 espèces de ce genre se rencontrent en Australie et en Nouvelle-Guinée[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 16 espèces de ce genre se rencontrent en Australie et en Nouvelle-Guinée.
 </t>
         </is>
       </c>
@@ -542,26 +556,28 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (27 décembre 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (27 décembre 2022) :
 Elseya albagula Thomson, Georges &amp; Limpus, 2006
-Elseya auramemoria Joseph-Ouni et al., 2022[3]
+Elseya auramemoria Joseph-Ouni et al., 2022
 Elseya branderhorsti (Ouwens, 1914)
-Elseya caelatus Joseph-Ouni &amp; McCord, 2019[4]
+Elseya caelatus Joseph-Ouni &amp; McCord, 2019
 Elseya caelatus ayamaru Joseph-Ouni &amp; McCord, 2019
 Elseya caelatus caelatus Joseph-Ouni &amp; McCord, 2019
 Elseya dentata (Gray, 1863)
-Elseya eidolon Joseph-Ouni et al., 2022[3]
-Elseya flaviventralis Thomson &amp; Georges, 2016[5]
+Elseya eidolon Joseph-Ouni et al., 2022
+Elseya flaviventralis Thomson &amp; Georges, 2016
 Elseya irwini Cann, 1997
-Elseya kalumburu Joseph-Ouni et al., 2022[6]
+Elseya kalumburu Joseph-Ouni et al., 2022
 Elseya lavarackorum (White &amp; Archer, 1994)
-Elseya nabire Joseph-Ouni &amp; McCord, 2022[7]
+Elseya nabire Joseph-Ouni &amp; McCord, 2022
 Elseya novaeguineae (Meyer, 1874)
-Elseya orestiad Joseph-Ouni &amp; McCord, 2019 [8]
-Elseya papua Joseph-Ouni &amp; McCord, 2022[7]
-Elseya rhodini Thomson et al., 2015[9]
+Elseya orestiad Joseph-Ouni &amp; McCord, 2019 
+Elseya papua Joseph-Ouni &amp; McCord, 2022
+Elseya rhodini Thomson et al., 2015
 Elseya schultzei (Vogt, 1911)
 Et deux espèces éteintes :
 † Elseya nadibajagu Thomson &amp; Mackness, 1999
@@ -593,7 +609,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gray, 1867 : Description of a new Australian tortoise (Elseya latisternum). Annals and Magazine of Natural History, sér. 3, vol. 20, p. 43-45 (texte intégral).</t>
         </is>
